--- a/data/pca/factorExposure/factorExposure_2010-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-13.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003832285295189324</v>
+        <v>0.01713981377993041</v>
       </c>
       <c r="C2">
-        <v>0.01662953316423268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001210508040357482</v>
+      </c>
+      <c r="D2">
+        <v>0.005594882248611099</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005335850143934613</v>
+      </c>
+      <c r="F2">
+        <v>-0.0108664373507926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02953681092943353</v>
+        <v>0.09469338413045368</v>
       </c>
       <c r="C4">
-        <v>0.1261918867106697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01585785702909697</v>
+      </c>
+      <c r="D4">
+        <v>0.0828017826151823</v>
+      </c>
+      <c r="E4">
+        <v>0.02910044763547699</v>
+      </c>
+      <c r="F4">
+        <v>0.03063020756370288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03624607888724286</v>
+        <v>0.1570264430096584</v>
       </c>
       <c r="C6">
-        <v>0.1103066646369426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02535092596349358</v>
+      </c>
+      <c r="D6">
+        <v>-0.02348453098634233</v>
+      </c>
+      <c r="E6">
+        <v>0.009330948134268619</v>
+      </c>
+      <c r="F6">
+        <v>0.04668111534252104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009530913000297446</v>
+        <v>0.0606545294545886</v>
       </c>
       <c r="C7">
-        <v>0.07637060829396508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0009393997077871968</v>
+      </c>
+      <c r="D7">
+        <v>0.05265630155115891</v>
+      </c>
+      <c r="E7">
+        <v>0.01100485884499879</v>
+      </c>
+      <c r="F7">
+        <v>0.0432425770124164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003094269592543053</v>
+        <v>0.05813982660726536</v>
       </c>
       <c r="C8">
-        <v>0.05869068254842785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0133261664479677</v>
+      </c>
+      <c r="D8">
+        <v>0.03202197478485218</v>
+      </c>
+      <c r="E8">
+        <v>0.01699624198596422</v>
+      </c>
+      <c r="F8">
+        <v>-0.02824750347323533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02470745547665559</v>
+        <v>0.07227167675662832</v>
       </c>
       <c r="C9">
-        <v>0.1031129069663412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01164061152694961</v>
+      </c>
+      <c r="D9">
+        <v>0.08449726544448063</v>
+      </c>
+      <c r="E9">
+        <v>0.02363718782228981</v>
+      </c>
+      <c r="F9">
+        <v>0.04655249375557156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01067343697061579</v>
+        <v>0.09278557893993131</v>
       </c>
       <c r="C10">
-        <v>0.01898244687315901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01928302976944711</v>
+      </c>
+      <c r="D10">
+        <v>-0.1707764722271606</v>
+      </c>
+      <c r="E10">
+        <v>-0.03754161732988938</v>
+      </c>
+      <c r="F10">
+        <v>-0.05474545167944211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02879889619203839</v>
+        <v>0.08802864689701466</v>
       </c>
       <c r="C11">
-        <v>0.112114556845314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01131119387682716</v>
+      </c>
+      <c r="D11">
+        <v>0.1157502671222657</v>
+      </c>
+      <c r="E11">
+        <v>0.0470979634932979</v>
+      </c>
+      <c r="F11">
+        <v>0.01914806778179771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02622479019455822</v>
+        <v>0.09309730603227626</v>
       </c>
       <c r="C12">
-        <v>0.1218895890522825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.00844293530539437</v>
+      </c>
+      <c r="D12">
+        <v>0.1297193357204896</v>
+      </c>
+      <c r="E12">
+        <v>0.04745472202069116</v>
+      </c>
+      <c r="F12">
+        <v>0.02425111264530777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009109518941950476</v>
+        <v>0.04309824677811236</v>
       </c>
       <c r="C13">
-        <v>0.04339459635730195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003745334371439425</v>
+      </c>
+      <c r="D13">
+        <v>0.04944523510602907</v>
+      </c>
+      <c r="E13">
+        <v>-0.01026114983655342</v>
+      </c>
+      <c r="F13">
+        <v>0.001915643248513821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01623302014134162</v>
+        <v>0.02281067540280988</v>
       </c>
       <c r="C14">
-        <v>0.02599207089705697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01402956844905132</v>
+      </c>
+      <c r="D14">
+        <v>0.03393316379879639</v>
+      </c>
+      <c r="E14">
+        <v>0.01752650290688593</v>
+      </c>
+      <c r="F14">
+        <v>0.0136152498326734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01015855078398908</v>
+        <v>0.03146353265738345</v>
       </c>
       <c r="C15">
-        <v>0.02786502051112782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005097187829421657</v>
+      </c>
+      <c r="D15">
+        <v>0.0451868183283545</v>
+      </c>
+      <c r="E15">
+        <v>0.006714861837623495</v>
+      </c>
+      <c r="F15">
+        <v>0.02130886680344647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01807407949562462</v>
+        <v>0.07353518866734357</v>
       </c>
       <c r="C16">
-        <v>0.1146974597318448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.00222830853001555</v>
+      </c>
+      <c r="D16">
+        <v>0.1258753753348055</v>
+      </c>
+      <c r="E16">
+        <v>0.06217815896090618</v>
+      </c>
+      <c r="F16">
+        <v>0.0221402173632487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02770158569851419</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003665985055300384</v>
+      </c>
+      <c r="D18">
+        <v>0.02143691266674405</v>
+      </c>
+      <c r="E18">
+        <v>-0.006109543497346592</v>
+      </c>
+      <c r="F18">
+        <v>-0.006212348063632853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01146595375811725</v>
+        <v>0.06082579695088815</v>
       </c>
       <c r="C20">
-        <v>0.06819935137266314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006261351605585527</v>
+      </c>
+      <c r="D20">
+        <v>0.07686145205982062</v>
+      </c>
+      <c r="E20">
+        <v>0.05614983081923276</v>
+      </c>
+      <c r="F20">
+        <v>0.02104377277085192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0123288049256649</v>
+        <v>0.03934402608539104</v>
       </c>
       <c r="C21">
-        <v>0.02087315211689122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006443912749053545</v>
+      </c>
+      <c r="D21">
+        <v>0.03727856272188902</v>
+      </c>
+      <c r="E21">
+        <v>-0.005753766529092529</v>
+      </c>
+      <c r="F21">
+        <v>-0.0268088791056786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003878244633647137</v>
+        <v>0.04395975013897886</v>
       </c>
       <c r="C22">
-        <v>0.02775094432123572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.000936831341027583</v>
+      </c>
+      <c r="D22">
+        <v>0.001708618317481217</v>
+      </c>
+      <c r="E22">
+        <v>0.02767732343510449</v>
+      </c>
+      <c r="F22">
+        <v>-0.03087946521415879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003866566090849633</v>
+        <v>0.04394475892742469</v>
       </c>
       <c r="C23">
-        <v>0.02768525591605033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0009324978863587517</v>
+      </c>
+      <c r="D23">
+        <v>0.001713959871947146</v>
+      </c>
+      <c r="E23">
+        <v>0.02787931728851755</v>
+      </c>
+      <c r="F23">
+        <v>-0.03084552145297894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01827199269964675</v>
+        <v>0.08009845958094704</v>
       </c>
       <c r="C24">
-        <v>0.117525613845349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002925529865311157</v>
+      </c>
+      <c r="D24">
+        <v>0.1197316526210356</v>
+      </c>
+      <c r="E24">
+        <v>0.05037009594672992</v>
+      </c>
+      <c r="F24">
+        <v>0.02301820568341104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02368929743943524</v>
+        <v>0.08513473659518235</v>
       </c>
       <c r="C25">
-        <v>0.1209181430323287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005134737019822725</v>
+      </c>
+      <c r="D25">
+        <v>0.108486172053249</v>
+      </c>
+      <c r="E25">
+        <v>0.03326766368404768</v>
+      </c>
+      <c r="F25">
+        <v>0.0245090606284999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02324900093610351</v>
+        <v>0.05728759965271948</v>
       </c>
       <c r="C26">
-        <v>0.05164399060715211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01460802653528726</v>
+      </c>
+      <c r="D26">
+        <v>0.04153574758950693</v>
+      </c>
+      <c r="E26">
+        <v>0.02808865265554772</v>
+      </c>
+      <c r="F26">
+        <v>-0.01153879989371209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003229851171946353</v>
+        <v>0.1401402826416148</v>
       </c>
       <c r="C28">
-        <v>0.01409198972936172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01877476368853648</v>
+      </c>
+      <c r="D28">
+        <v>-0.264648158981121</v>
+      </c>
+      <c r="E28">
+        <v>-0.06846245155191938</v>
+      </c>
+      <c r="F28">
+        <v>0.008655627603195066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01294244979200545</v>
+        <v>0.02728878898583527</v>
       </c>
       <c r="C29">
-        <v>0.03108043145060879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008230602580435521</v>
+      </c>
+      <c r="D29">
+        <v>0.03289567231312803</v>
+      </c>
+      <c r="E29">
+        <v>0.01140337639009215</v>
+      </c>
+      <c r="F29">
+        <v>-0.01121344443675371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01507497434929764</v>
+        <v>0.0625080094422929</v>
       </c>
       <c r="C30">
-        <v>0.1277115130943161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004332011771066633</v>
+      </c>
+      <c r="D30">
+        <v>0.08694526206534722</v>
+      </c>
+      <c r="E30">
+        <v>0.02118902403074188</v>
+      </c>
+      <c r="F30">
+        <v>0.08085387432569539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02150917480705219</v>
+        <v>0.04954553901884693</v>
       </c>
       <c r="C31">
-        <v>0.03749904026551559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01527351774053422</v>
+      </c>
+      <c r="D31">
+        <v>0.02511140233074304</v>
+      </c>
+      <c r="E31">
+        <v>0.02749358875955604</v>
+      </c>
+      <c r="F31">
+        <v>-0.002495004338600733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006265269571537532</v>
+        <v>0.04904791783227053</v>
       </c>
       <c r="C32">
-        <v>0.05491791912359093</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.00124328329216265</v>
+      </c>
+      <c r="D32">
+        <v>0.03689191876698376</v>
+      </c>
+      <c r="E32">
+        <v>0.03121415117274733</v>
+      </c>
+      <c r="F32">
+        <v>5.438810827237557e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0219444764795934</v>
+        <v>0.09045433302782725</v>
       </c>
       <c r="C33">
-        <v>0.1154129434839647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008345226772014392</v>
+      </c>
+      <c r="D33">
+        <v>0.09858375790245523</v>
+      </c>
+      <c r="E33">
+        <v>0.04548551599733461</v>
+      </c>
+      <c r="F33">
+        <v>0.03410232863120684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02562525470705811</v>
+        <v>0.06832524706132682</v>
       </c>
       <c r="C34">
-        <v>0.09961681777522584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01153978752551584</v>
+      </c>
+      <c r="D34">
+        <v>0.1055156681687085</v>
+      </c>
+      <c r="E34">
+        <v>0.03506390669412721</v>
+      </c>
+      <c r="F34">
+        <v>0.03169218296122572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0037583818175779</v>
+        <v>0.02356449571300905</v>
       </c>
       <c r="C35">
-        <v>0.01561917123354209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002396118232894459</v>
+      </c>
+      <c r="D35">
+        <v>0.01225423421207713</v>
+      </c>
+      <c r="E35">
+        <v>0.01145023182037445</v>
+      </c>
+      <c r="F35">
+        <v>0.0008229788067112653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01049638965316453</v>
+        <v>0.02576051301761263</v>
       </c>
       <c r="C36">
-        <v>0.02960835494761638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007025357121745087</v>
+      </c>
+      <c r="D36">
+        <v>0.04048364651934917</v>
+      </c>
+      <c r="E36">
+        <v>0.01591018423930855</v>
+      </c>
+      <c r="F36">
+        <v>0.01404314594057675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-4.577000871718072e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-1.282017237948751e-05</v>
+      </c>
+      <c r="D37">
+        <v>-9.403766160346996e-05</v>
+      </c>
+      <c r="E37">
+        <v>-6.914120343457325e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.0002955496175892303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005228038863856549</v>
+        <v>0.001260366031367481</v>
       </c>
       <c r="C38">
-        <v>0.004011448721968817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.00017683464028762</v>
+      </c>
+      <c r="D38">
+        <v>0.0007186300111270453</v>
+      </c>
+      <c r="E38">
+        <v>0.0008944741793613313</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007016623742747813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04130569537068739</v>
+        <v>0.1075673957678976</v>
       </c>
       <c r="C39">
-        <v>0.1817623042153709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01680840565590272</v>
+      </c>
+      <c r="D39">
+        <v>0.1521714076081117</v>
+      </c>
+      <c r="E39">
+        <v>0.05951356213967236</v>
+      </c>
+      <c r="F39">
+        <v>0.02679372757157428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01123228267527837</v>
+        <v>0.03982726384637571</v>
       </c>
       <c r="C40">
-        <v>0.01566594976469313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007277488929335563</v>
+      </c>
+      <c r="D40">
+        <v>0.03210122877810444</v>
+      </c>
+      <c r="E40">
+        <v>0.003086586988487174</v>
+      </c>
+      <c r="F40">
+        <v>-0.01686922510494581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01101663638884006</v>
+        <v>0.02639040405506306</v>
       </c>
       <c r="C41">
-        <v>0.02123834003081138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006559485837191278</v>
+      </c>
+      <c r="D41">
+        <v>0.01138620252213575</v>
+      </c>
+      <c r="E41">
+        <v>0.01245480690087116</v>
+      </c>
+      <c r="F41">
+        <v>-0.0070618589564654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0130844880872966</v>
+        <v>0.03988293009743479</v>
       </c>
       <c r="C43">
-        <v>0.02781170728724007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006782964141981093</v>
+      </c>
+      <c r="D43">
+        <v>0.02109440231993394</v>
+      </c>
+      <c r="E43">
+        <v>0.02521516733023473</v>
+      </c>
+      <c r="F43">
+        <v>-0.01258566338619008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03055771568679602</v>
+        <v>0.07788147145916924</v>
       </c>
       <c r="C44">
-        <v>0.1371695285989829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02067181271585288</v>
+      </c>
+      <c r="D44">
+        <v>0.09940962259922616</v>
+      </c>
+      <c r="E44">
+        <v>0.06770120226864176</v>
+      </c>
+      <c r="F44">
+        <v>0.1510804982493553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00558606074328217</v>
+        <v>0.02413248869668378</v>
       </c>
       <c r="C46">
-        <v>0.004789253418415023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003788686596407669</v>
+      </c>
+      <c r="D46">
+        <v>0.01191317759952592</v>
+      </c>
+      <c r="E46">
+        <v>0.02157344050747459</v>
+      </c>
+      <c r="F46">
+        <v>-0.004698180831434226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01003056963003057</v>
+        <v>0.05063240730217713</v>
       </c>
       <c r="C47">
-        <v>0.03531697125755068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003665699300358905</v>
+      </c>
+      <c r="D47">
+        <v>0.0119181023380903</v>
+      </c>
+      <c r="E47">
+        <v>0.02251831455095917</v>
+      </c>
+      <c r="F47">
+        <v>-0.03313221031192571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01157437960096507</v>
+        <v>0.0485861815563243</v>
       </c>
       <c r="C48">
-        <v>0.05088134395863497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002498208079054642</v>
+      </c>
+      <c r="D48">
+        <v>0.05067100294157363</v>
+      </c>
+      <c r="E48">
+        <v>-0.006491360448285753</v>
+      </c>
+      <c r="F48">
+        <v>0.008161011019782239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.0353200049271476</v>
+        <v>0.2007256764044339</v>
       </c>
       <c r="C49">
-        <v>0.1998750502470147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01876894512663783</v>
+      </c>
+      <c r="D49">
+        <v>-0.0111517456540417</v>
+      </c>
+      <c r="E49">
+        <v>0.03045149258896807</v>
+      </c>
+      <c r="F49">
+        <v>0.03994125506230242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01804922252942048</v>
+        <v>0.04972204195922602</v>
       </c>
       <c r="C50">
-        <v>0.04286235777842955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01128723333451995</v>
+      </c>
+      <c r="D50">
+        <v>0.02425248406849582</v>
+      </c>
+      <c r="E50">
+        <v>0.02978289203176561</v>
+      </c>
+      <c r="F50">
+        <v>0.007960100714368375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004909075095592363</v>
+        <v>0.001129764841005496</v>
       </c>
       <c r="C51">
-        <v>0.003145835434913438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003231158355059029</v>
+      </c>
+      <c r="D51">
+        <v>-0.0008995869742447373</v>
+      </c>
+      <c r="E51">
+        <v>0.0001983593242568107</v>
+      </c>
+      <c r="F51">
+        <v>0.003226960683448324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02896077686362415</v>
+        <v>0.1467681973054002</v>
       </c>
       <c r="C52">
-        <v>0.1506773099606826</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01548237065972618</v>
+      </c>
+      <c r="D52">
+        <v>0.04480993370161333</v>
+      </c>
+      <c r="E52">
+        <v>0.02027071343245204</v>
+      </c>
+      <c r="F52">
+        <v>0.04293687988937228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02993278027975706</v>
+        <v>0.1739916145897051</v>
       </c>
       <c r="C53">
-        <v>0.1709293629265888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01864096320870577</v>
+      </c>
+      <c r="D53">
+        <v>0.004296041698721191</v>
+      </c>
+      <c r="E53">
+        <v>0.03136093720935936</v>
+      </c>
+      <c r="F53">
+        <v>0.0757311256434695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01524982010958639</v>
+        <v>0.02145060876301586</v>
       </c>
       <c r="C54">
-        <v>0.0447424503126398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01240792972111663</v>
+      </c>
+      <c r="D54">
+        <v>0.03350751919476006</v>
+      </c>
+      <c r="E54">
+        <v>0.0171054921605186</v>
+      </c>
+      <c r="F54">
+        <v>-0.004022807476864762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02346274379862481</v>
+        <v>0.1143140314237028</v>
       </c>
       <c r="C55">
-        <v>0.08553411002602651</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01653712474796912</v>
+      </c>
+      <c r="D55">
+        <v>0.008831960041208627</v>
+      </c>
+      <c r="E55">
+        <v>0.02803967055325903</v>
+      </c>
+      <c r="F55">
+        <v>0.04848394088573513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03098249915939419</v>
+        <v>0.1785712625325422</v>
       </c>
       <c r="C56">
-        <v>0.1637010276615005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01604086289564039</v>
+      </c>
+      <c r="D56">
+        <v>0.0005451117110212348</v>
+      </c>
+      <c r="E56">
+        <v>0.03645297270957704</v>
+      </c>
+      <c r="F56">
+        <v>0.05445020914297211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01261878600878197</v>
+        <v>0.04627285479806914</v>
       </c>
       <c r="C58">
-        <v>0.04885041257318831</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001121619552401235</v>
+      </c>
+      <c r="D58">
+        <v>0.06713707189913239</v>
+      </c>
+      <c r="E58">
+        <v>0.02744348144671578</v>
+      </c>
+      <c r="F58">
+        <v>-0.03751786109746413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01002740100134175</v>
+        <v>0.1687904294649301</v>
       </c>
       <c r="C59">
-        <v>0.06754235415380765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01976092825816934</v>
+      </c>
+      <c r="D59">
+        <v>-0.2228654713613761</v>
+      </c>
+      <c r="E59">
+        <v>-0.04593592864568906</v>
+      </c>
+      <c r="F59">
+        <v>-0.03386508985246933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02292518331391128</v>
+        <v>0.2341569891035155</v>
       </c>
       <c r="C60">
-        <v>0.2753998520038214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002499559416066681</v>
+      </c>
+      <c r="D60">
+        <v>0.0387628255932991</v>
+      </c>
+      <c r="E60">
+        <v>0.01041235204148988</v>
+      </c>
+      <c r="F60">
+        <v>-0.002147564100761556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02881243337240988</v>
+        <v>0.0833273879738531</v>
       </c>
       <c r="C61">
-        <v>0.131237495161917</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01267986268901225</v>
+      </c>
+      <c r="D61">
+        <v>0.1154858131570984</v>
+      </c>
+      <c r="E61">
+        <v>0.03921304395073966</v>
+      </c>
+      <c r="F61">
+        <v>0.009916831446053081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03314611121642549</v>
+        <v>0.1704762854520255</v>
       </c>
       <c r="C62">
-        <v>0.1643967301882097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0195056725375522</v>
+      </c>
+      <c r="D62">
+        <v>0.006393490879599635</v>
+      </c>
+      <c r="E62">
+        <v>0.0354023306748437</v>
+      </c>
+      <c r="F62">
+        <v>0.03626830957492436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01119749588600087</v>
+        <v>0.04389824720640542</v>
       </c>
       <c r="C63">
-        <v>0.05522547217351823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002193467118164916</v>
+      </c>
+      <c r="D63">
+        <v>0.05894069960831005</v>
+      </c>
+      <c r="E63">
+        <v>0.02059964261177847</v>
+      </c>
+      <c r="F63">
+        <v>0.003970512604787616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02232618501210887</v>
+        <v>0.1108402983804372</v>
       </c>
       <c r="C64">
-        <v>0.09927744100928237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01167034218730169</v>
+      </c>
+      <c r="D64">
+        <v>0.0421865938608613</v>
+      </c>
+      <c r="E64">
+        <v>0.02340713996405643</v>
+      </c>
+      <c r="F64">
+        <v>0.02625206910480658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03668014083039857</v>
+        <v>0.1468195469527832</v>
       </c>
       <c r="C65">
-        <v>0.1025024797072541</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03225100211884604</v>
+      </c>
+      <c r="D65">
+        <v>-0.04228791597189027</v>
+      </c>
+      <c r="E65">
+        <v>0.003445110267401989</v>
+      </c>
+      <c r="F65">
+        <v>0.039278691575807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03992673253624234</v>
+        <v>0.1278809473744507</v>
       </c>
       <c r="C66">
-        <v>0.2120205287454381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.0149008380173107</v>
+      </c>
+      <c r="D66">
+        <v>0.140175847570088</v>
+      </c>
+      <c r="E66">
+        <v>0.06726851885924995</v>
+      </c>
+      <c r="F66">
+        <v>0.03002101163998337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01415917969761297</v>
+        <v>0.06291937128733971</v>
       </c>
       <c r="C67">
-        <v>0.06064463875630877</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003306887094365065</v>
+      </c>
+      <c r="D67">
+        <v>0.05389592725153552</v>
+      </c>
+      <c r="E67">
+        <v>0.0171501674013456</v>
+      </c>
+      <c r="F67">
+        <v>-0.03255317809957514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01433313573661817</v>
+        <v>0.1152397996412001</v>
       </c>
       <c r="C68">
-        <v>0.01190602532175903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02879205740542648</v>
+      </c>
+      <c r="D68">
+        <v>-0.2600411269058984</v>
+      </c>
+      <c r="E68">
+        <v>-0.08654058173390546</v>
+      </c>
+      <c r="F68">
+        <v>0.005627055231217428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005611606225529148</v>
+        <v>0.03955029034898221</v>
       </c>
       <c r="C69">
-        <v>0.03230001207024057</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001264791382307849</v>
+      </c>
+      <c r="D69">
+        <v>0.007176057719386318</v>
+      </c>
+      <c r="E69">
+        <v>0.02328888301259848</v>
+      </c>
+      <c r="F69">
+        <v>-0.001050026336905506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001675954967534787</v>
+        <v>0.06332994734814083</v>
       </c>
       <c r="C70">
-        <v>0.02865816585014542</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02812982620489264</v>
+      </c>
+      <c r="D70">
+        <v>0.02634267909209662</v>
+      </c>
+      <c r="E70">
+        <v>-0.04310429073802134</v>
+      </c>
+      <c r="F70">
+        <v>-0.1866550683685302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01768122861448826</v>
+        <v>0.1342139014170536</v>
       </c>
       <c r="C71">
-        <v>0.01466787101875128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03375714670115753</v>
+      </c>
+      <c r="D71">
+        <v>-0.2742841626225421</v>
+      </c>
+      <c r="E71">
+        <v>-0.09644008317427494</v>
+      </c>
+      <c r="F71">
+        <v>0.01148064854754961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03481674835791309</v>
+        <v>0.1407346726606505</v>
       </c>
       <c r="C72">
-        <v>0.1153592959156674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02600073417699401</v>
+      </c>
+      <c r="D72">
+        <v>-0.0004289937831371115</v>
+      </c>
+      <c r="E72">
+        <v>0.03971205945389322</v>
+      </c>
+      <c r="F72">
+        <v>0.03546848668982758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03205510607655419</v>
+        <v>0.2010834195119138</v>
       </c>
       <c r="C73">
-        <v>0.2015773922843668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0131130247240864</v>
+      </c>
+      <c r="D73">
+        <v>0.01424877151474423</v>
+      </c>
+      <c r="E73">
+        <v>0.06451642208504108</v>
+      </c>
+      <c r="F73">
+        <v>0.03863243981609746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01899161462138782</v>
+        <v>0.09481340034156903</v>
       </c>
       <c r="C74">
-        <v>0.1155036885762535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01307737754358005</v>
+      </c>
+      <c r="D74">
+        <v>0.01823917471229817</v>
+      </c>
+      <c r="E74">
+        <v>0.04485515051523107</v>
+      </c>
+      <c r="F74">
+        <v>0.05724700169849209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04040603285099729</v>
+        <v>0.129145918471984</v>
       </c>
       <c r="C75">
-        <v>0.1363458553805291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0277082585886531</v>
+      </c>
+      <c r="D75">
+        <v>0.02949781855149352</v>
+      </c>
+      <c r="E75">
+        <v>0.05868405395632974</v>
+      </c>
+      <c r="F75">
+        <v>0.01964346396780412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004232335690025854</v>
+        <v>0.001142830376601119</v>
       </c>
       <c r="C76">
-        <v>0.003711581255155077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003112344314729504</v>
+      </c>
+      <c r="D76">
+        <v>-0.0008870627708199927</v>
+      </c>
+      <c r="E76">
+        <v>0.0002464888006000528</v>
+      </c>
+      <c r="F76">
+        <v>0.001376348205649947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02400557332566516</v>
+        <v>0.08147169643334511</v>
       </c>
       <c r="C77">
-        <v>0.1073773569520139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008482798398599934</v>
+      </c>
+      <c r="D77">
+        <v>0.1170399898209542</v>
+      </c>
+      <c r="E77">
+        <v>0.0401448541018465</v>
+      </c>
+      <c r="F77">
+        <v>0.02538552787331124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05233795019637379</v>
+        <v>0.1014882250629576</v>
       </c>
       <c r="C78">
-        <v>0.1295544473447816</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03958185430058506</v>
+      </c>
+      <c r="D78">
+        <v>0.1159211209287547</v>
+      </c>
+      <c r="E78">
+        <v>0.07793236362871661</v>
+      </c>
+      <c r="F78">
+        <v>0.04540716872839983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03502656162023917</v>
+        <v>0.164677819372149</v>
       </c>
       <c r="C79">
-        <v>0.146751538751398</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02219106321017102</v>
+      </c>
+      <c r="D79">
+        <v>0.01507369148064909</v>
+      </c>
+      <c r="E79">
+        <v>0.04677350686888723</v>
+      </c>
+      <c r="F79">
+        <v>0.01303577188943995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.008174987130144371</v>
+        <v>0.08227260753792863</v>
       </c>
       <c r="C80">
-        <v>0.09472148060920192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0005333390485003138</v>
+      </c>
+      <c r="D80">
+        <v>0.05689009110453644</v>
+      </c>
+      <c r="E80">
+        <v>0.03623299192011963</v>
+      </c>
+      <c r="F80">
+        <v>-0.02528107894520551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04206188232637999</v>
+        <v>0.1229002380979736</v>
       </c>
       <c r="C81">
-        <v>0.1483239901959785</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0314529992428475</v>
+      </c>
+      <c r="D81">
+        <v>0.01484712231156649</v>
+      </c>
+      <c r="E81">
+        <v>0.05874879587695916</v>
+      </c>
+      <c r="F81">
+        <v>0.01871745737122221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03619095855345488</v>
+        <v>0.1659860433527823</v>
       </c>
       <c r="C82">
-        <v>0.1681892364825192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02398811266309575</v>
+      </c>
+      <c r="D82">
+        <v>0.004679050171885585</v>
+      </c>
+      <c r="E82">
+        <v>0.02925778770813693</v>
+      </c>
+      <c r="F82">
+        <v>0.08212093268644097</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0180446584944746</v>
+        <v>0.06163008623553252</v>
       </c>
       <c r="C83">
-        <v>0.07020957550681013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003284204017314074</v>
+      </c>
+      <c r="D83">
+        <v>0.04969397612055094</v>
+      </c>
+      <c r="E83">
+        <v>0.005924956345759446</v>
+      </c>
+      <c r="F83">
+        <v>-0.03246518691183708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02520155587143751</v>
+        <v>0.05885113881216296</v>
       </c>
       <c r="C84">
-        <v>0.07589759217433956</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01114311551211686</v>
+      </c>
+      <c r="D84">
+        <v>0.06450771232329215</v>
+      </c>
+      <c r="E84">
+        <v>0.007259588121413439</v>
+      </c>
+      <c r="F84">
+        <v>0.004891541475927836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03660801743557084</v>
+        <v>0.1378055786824499</v>
       </c>
       <c r="C85">
-        <v>0.1225821368323993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02752381088904305</v>
+      </c>
+      <c r="D85">
+        <v>0.01054320422371217</v>
+      </c>
+      <c r="E85">
+        <v>0.03944561835118766</v>
+      </c>
+      <c r="F85">
+        <v>0.04697569420416862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007474823012125827</v>
+        <v>0.09626664822451514</v>
       </c>
       <c r="C86">
-        <v>0.09529087443750671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006419652642952169</v>
+      </c>
+      <c r="D86">
+        <v>0.03959873778222491</v>
+      </c>
+      <c r="E86">
+        <v>0.2066170007892437</v>
+      </c>
+      <c r="F86">
+        <v>-0.9102513789593327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03794145209827157</v>
+        <v>0.09704038570137341</v>
       </c>
       <c r="C87">
-        <v>0.1063351379789362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02068683555278348</v>
+      </c>
+      <c r="D87">
+        <v>0.09519554121611797</v>
+      </c>
+      <c r="E87">
+        <v>-0.05115508578758426</v>
+      </c>
+      <c r="F87">
+        <v>0.05192072823140066</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01248275004707319</v>
+        <v>0.06101114052612661</v>
       </c>
       <c r="C88">
-        <v>0.05992489239128832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002500645977101979</v>
+      </c>
+      <c r="D88">
+        <v>0.04994726776888424</v>
+      </c>
+      <c r="E88">
+        <v>0.02500741752516988</v>
+      </c>
+      <c r="F88">
+        <v>0.01287387333719223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0004448695018280748</v>
+        <v>0.1315464549594763</v>
       </c>
       <c r="C89">
-        <v>0.03035471451675585</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0115131387346926</v>
+      </c>
+      <c r="D89">
+        <v>-0.2524391435568166</v>
+      </c>
+      <c r="E89">
+        <v>-0.09112611489519339</v>
+      </c>
+      <c r="F89">
+        <v>-0.008522369189238446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.0163116262384124</v>
+        <v>0.1466222139820331</v>
       </c>
       <c r="C90">
-        <v>0.01546443030299538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02941269604258632</v>
+      </c>
+      <c r="D90">
+        <v>-0.2665638314275134</v>
+      </c>
+      <c r="E90">
+        <v>-0.1107756009846356</v>
+      </c>
+      <c r="F90">
+        <v>-0.002985751407897309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02214057446009337</v>
+        <v>0.1196379232067317</v>
       </c>
       <c r="C91">
-        <v>0.09490429171059261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01836974107536183</v>
+      </c>
+      <c r="D91">
+        <v>-0.01296298777497578</v>
+      </c>
+      <c r="E91">
+        <v>0.05674349571140393</v>
+      </c>
+      <c r="F91">
+        <v>-0.00114383857593565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0003223691835837144</v>
+        <v>0.1457178905075986</v>
       </c>
       <c r="C92">
-        <v>0.02858634011203732</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02142743895832839</v>
+      </c>
+      <c r="D92">
+        <v>-0.2909671799382301</v>
+      </c>
+      <c r="E92">
+        <v>-0.100972113202158</v>
+      </c>
+      <c r="F92">
+        <v>-0.01373126748079846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01248793887881913</v>
+        <v>0.1497570458478087</v>
       </c>
       <c r="C93">
-        <v>0.02177461307310151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02561474900046824</v>
+      </c>
+      <c r="D93">
+        <v>-0.2680382487140829</v>
+      </c>
+      <c r="E93">
+        <v>-0.07798064229175831</v>
+      </c>
+      <c r="F93">
+        <v>0.00358532533030332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03997569708831955</v>
+        <v>0.1318872817343032</v>
       </c>
       <c r="C94">
-        <v>0.1593911950812565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0246431798741852</v>
+      </c>
+      <c r="D94">
+        <v>0.04259682153917645</v>
+      </c>
+      <c r="E94">
+        <v>0.05839628199968246</v>
+      </c>
+      <c r="F94">
+        <v>0.037603566226459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.024114768762227</v>
+        <v>0.1255418114504285</v>
       </c>
       <c r="C95">
-        <v>0.1457209570496633</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004573578945822888</v>
+      </c>
+      <c r="D95">
+        <v>0.0911423930642435</v>
+      </c>
+      <c r="E95">
+        <v>0.04645120407877275</v>
+      </c>
+      <c r="F95">
+        <v>-0.01085877665401235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9775591547343295</v>
+        <v>0.1050063847924463</v>
       </c>
       <c r="C96">
-        <v>0.1909739696074852</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879558281914397</v>
+      </c>
+      <c r="D96">
+        <v>-0.04085471051965449</v>
+      </c>
+      <c r="E96">
+        <v>0.05641837814701089</v>
+      </c>
+      <c r="F96">
+        <v>0.04251379778244797</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.002766934045509186</v>
+        <v>0.1916902072578045</v>
       </c>
       <c r="C97">
-        <v>0.1719911393744277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008452276536724292</v>
+      </c>
+      <c r="D97">
+        <v>-0.0166680028561294</v>
+      </c>
+      <c r="E97">
+        <v>0.01501410975815749</v>
+      </c>
+      <c r="F97">
+        <v>-0.09265465962571325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02355678224206612</v>
+        <v>0.2062601464177453</v>
       </c>
       <c r="C98">
-        <v>0.1842280844756402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007828570766977376</v>
+      </c>
+      <c r="D98">
+        <v>0.007620535163105573</v>
+      </c>
+      <c r="E98">
+        <v>-0.08618962504596785</v>
+      </c>
+      <c r="F98">
+        <v>-0.09337646672385058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003413887447095035</v>
+        <v>0.05611810907674743</v>
       </c>
       <c r="C99">
-        <v>0.05533371258794965</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.00434222483910323</v>
+      </c>
+      <c r="D99">
+        <v>0.03895680304243962</v>
+      </c>
+      <c r="E99">
+        <v>0.0239063287587928</v>
+      </c>
+      <c r="F99">
+        <v>0.0004789159655026683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.005116127106467594</v>
+        <v>0.1278311334819431</v>
       </c>
       <c r="C100">
-        <v>0.1682535389942817</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05274801959503364</v>
+      </c>
+      <c r="D100">
+        <v>0.3462337355356491</v>
+      </c>
+      <c r="E100">
+        <v>-0.8889721996415738</v>
+      </c>
+      <c r="F100">
+        <v>-0.1325357356924186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01295695598815009</v>
+        <v>0.02720582266058277</v>
       </c>
       <c r="C101">
-        <v>0.03109441271965604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.00823952243524865</v>
+      </c>
+      <c r="D101">
+        <v>0.03259980232940549</v>
+      </c>
+      <c r="E101">
+        <v>0.01083110448471353</v>
+      </c>
+      <c r="F101">
+        <v>-0.01245368648929029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
